--- a/output_volume.xlsx
+++ b/output_volume.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Карамель "Карамелькино дюшес" (ЛФР 2кг/4пак)</t>
+    <t>Карамель "Карамелькино" (ЛФР 2кг/4пак)</t>
   </si>
   <si>
     <t>Карамель "Карамелькино мята" (ЛФР 2кг/4пак)</t>
-  </si>
-  <si>
-    <t>Карамель "Карамелькино" (ЛФР 2кг/4пак)</t>
   </si>
   <si>
     <t>Год</t>
@@ -386,18 +383,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -405,11 +402,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
@@ -417,81 +411,174 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2230</v>
+        <v>3472</v>
       </c>
       <c r="D2">
         <v>2446</v>
       </c>
-      <c r="E2">
-        <v>3472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1402</v>
+        <v>2266</v>
       </c>
       <c r="D3">
         <v>1960</v>
       </c>
-      <c r="E3">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2148</v>
+        <v>3350</v>
       </c>
       <c r="D4">
         <v>2728</v>
       </c>
-      <c r="E4">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>2016</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2274</v>
+        <v>4158</v>
       </c>
       <c r="D5">
-        <v>2734</v>
-      </c>
-      <c r="E5">
-        <v>3892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3468</v>
+      </c>
+      <c r="D6">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3730</v>
+      </c>
+      <c r="D7">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3600</v>
+      </c>
+      <c r="D8">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3024</v>
+      </c>
+      <c r="D9">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3488</v>
+      </c>
+      <c r="D10">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2930</v>
+      </c>
+      <c r="D11">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>3606</v>
+      </c>
+      <c r="D12">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3892</v>
+      </c>
+      <c r="D13">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>2424</v>
-      </c>
-      <c r="D6">
+      <c r="C14">
+        <v>3942</v>
+      </c>
+      <c r="D14">
         <v>2646</v>
       </c>
-      <c r="E6">
-        <v>3942</v>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3490.428931875526</v>
+      </c>
+      <c r="D15">
+        <v>2550.349873843566</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output_volume.xlsx
+++ b/output_volume.xlsx
@@ -1,63 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Карамель "Карамелькино" (ЛФР 2кг/4пак)</t>
-  </si>
-  <si>
-    <t>Карамель "Карамелькино мята" (ЛФР 2кг/4пак)</t>
-  </si>
-  <si>
-    <t>Год</t>
-  </si>
-  <si>
-    <t>Месяц</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -66,18 +46,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -85,16 +77,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,204 +441,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Месяц</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Карамель "Карамелькино" (ЛФР 2кг/4пак)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Карамель "Карамелькино мята" (ЛФР 2кг/4пак)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Карамель "Карамелькино дюшес" (ЛФР 2кг/4пак)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Конфеты "БЕШЕНАЯ ПЧЕЛКА ФРУТТИ" (ЛФР 2 кг/3пак)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4158</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2762</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2332</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3468</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3730</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2854</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2206</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2628</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5756</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3024</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2462</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1924</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3488</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2976</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2396</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2930</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2132</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1550</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3606</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2626</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2206</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3472</v>
-      </c>
-      <c r="D2">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2266</v>
-      </c>
-      <c r="D3">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3350</v>
-      </c>
-      <c r="D4">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4158</v>
-      </c>
-      <c r="D5">
-        <v>2762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>3468</v>
-      </c>
-      <c r="D6">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>3730</v>
-      </c>
-      <c r="D7">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>3600</v>
-      </c>
-      <c r="D8">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>3024</v>
-      </c>
-      <c r="D9">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>3488</v>
-      </c>
-      <c r="D10">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2930</v>
-      </c>
-      <c r="D11">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>3606</v>
-      </c>
-      <c r="D12">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>3892</v>
-      </c>
-      <c r="D13">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3942</v>
-      </c>
-      <c r="D14">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>3490.428931875526</v>
-      </c>
-      <c r="D15">
-        <v>2550.349873843566</v>
+      <c r="C10" t="n">
+        <v>3079.642857142858</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2488.357142857143</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1951.857142857143</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5098.785714285714</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A15"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>